--- a/Project/media/CSV/CraftRacipe.xlsx
+++ b/Project/media/CSV/CraftRacipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Project\media\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C306CC70-9740-4620-BF95-F979F3CD4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A25072-6F7D-4EDE-95AF-BA9DA92974A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964522-7C3F-4735-92A8-2BDCDA9736E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CraftItem</t>
     <phoneticPr fontId="1"/>
@@ -53,12 +53,20 @@
     <t>Rail</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SuccesVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FailedVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501893D3-1BBD-423C-BF31-ED759519C7E9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +461,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,6 +477,12 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -472,15 +492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010073B7343A2EEDD54B833DF7F911A269FE" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b5551f2ac287dce9896411bc92edf31c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85a460da-04c4-4937-bc15-5bce609a6b95" xmlns:ns3="7e319707-8ca9-4a74-a266-ed1035e9b3e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a1edaa4937e0159201465a32563007" ns2:_="" ns3:_="">
     <xsd:import namespace="85a460da-04c4-4937-bc15-5bce609a6b95"/>
@@ -709,10 +720,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A10B40-576F-438E-9C45-7096F67AA9B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85a460da-04c4-4937-bc15-5bce609a6b95"/>
+    <ds:schemaRef ds:uri="7e319707-8ca9-4a74-a266-ed1035e9b3e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A10B40-576F-438E-9C45-7096F67AA9B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>